--- a/headers_footers.xlsx
+++ b/headers_footers.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Mixed fonts" sheetId="4" r:id="rId4"/>
     <sheet name="Word wrap" sheetId="5" r:id="rId5"/>
     <sheet name="Ampersand" sheetId="6" r:id="rId6"/>
+    <sheet name="Watermark" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>Select Print Preview to see the header and footer</t>
   </si>
@@ -509,4 +510,26 @@
     <oddHeader>&amp;CCuriouser &amp;&amp; Curiouser - Attorneys at Law</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;G</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId1"/>
+</worksheet>
 </file>